--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D21FF96-AF7B-4F3C-9344-07E8EAE7753F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D2C9C-8AE4-4F15-A0C2-E269503E9FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15504" yWindow="7896" windowWidth="18444" windowHeight="15276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Parser implementation</t>
+  </si>
+  <si>
+    <t>Trying to implement parser using Superpower</t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,6 +485,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D2C9C-8AE4-4F15-A0C2-E269503E9FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1A0B02-ADA9-4E0E-9D6E-1705FB9EE098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,6 +496,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1A0B02-ADA9-4E0E-9D6E-1705FB9EE098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E24F53-58A5-4B02-A8D1-B6FF3E262C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12156" yWindow="8256" windowWidth="23496" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Trying to implement parser using Superpower</t>
+  </si>
+  <si>
+    <t>Evaluator implementation</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,6 +510,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E24F53-58A5-4B02-A8D1-B6FF3E262C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A09689-A97C-4E51-9245-DDB622114F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12156" yWindow="8256" windowWidth="23496" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
         <v>44965</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A09689-A97C-4E51-9245-DDB622114F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E070054-6BEB-4E8F-A99A-712C135D4FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12156" yWindow="8256" windowWidth="23496" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,6 +543,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E070054-6BEB-4E8F-A99A-712C135D4FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E54DC5-2F91-4A26-B058-5C53D1675832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Evaluator implementation</t>
+  </si>
+  <si>
+    <t>Web UI implementation</t>
+  </si>
+  <si>
+    <t>Fixes for calculator</t>
+  </si>
+  <si>
+    <t>Refactoring the calculator</t>
+  </si>
+  <si>
+    <t>Project deployment on staging server</t>
   </si>
 </sst>
 </file>
@@ -118,10 +130,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,6 +573,72 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E54DC5-2F91-4A26-B058-5C53D1675832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56210F-F287-479E-B06B-B44BB649BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Project deployment on staging server</t>
+  </si>
+  <si>
+    <t>Fix calculator and UI bugs</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,6 +642,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56210F-F287-479E-B06B-B44BB649BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E055C-2D7E-4013-936B-E2F230CBEC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15492" yWindow="7512" windowWidth="23496" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Fix calculator and UI bugs</t>
+  </si>
+  <si>
+    <t>Fix various calculator issues</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,6 +656,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E055C-2D7E-4013-936B-E2F230CBEC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA3A21-1921-4BFC-B19F-496DFDD78875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15492" yWindow="7512" windowWidth="23496" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Fix various calculator issues</t>
+  </si>
+  <si>
+    <t>Refactored calculator and variables</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,6 +681,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA3A21-1921-4BFC-B19F-496DFDD78875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC7EC76-70FE-45D7-AB03-523CF3B27810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Refactored calculator and variables</t>
+  </si>
+  <si>
+    <t>Work on logical evaluation</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,6 +706,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC7EC76-70FE-45D7-AB03-523CF3B27810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3BE23-82EA-490D-B6B8-1B980362D23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16620" yWindow="7296" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Work on logical evaluation</t>
+  </si>
+  <si>
+    <t>Various UI enhancements (Split Screen, a.o.)</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,6 +720,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3BE23-82EA-490D-B6B8-1B980362D23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C02543-1998-4201-B1F2-B2A749557121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="7296" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,7 +736,7 @@
         <v>44985</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C02543-1998-4201-B1F2-B2A749557121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA7E56-CE31-41BC-B251-4B6C41125331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22812" yWindow="9108" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Various UI enhancements (Split Screen, a.o.)</t>
+  </si>
+  <si>
+    <t>Fix duplicate variables in fees</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,6 +745,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA7E56-CE31-41BC-B251-4B6C41125331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D17EC4-1D0A-4717-9C14-C5801EBD7E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22812" yWindow="9108" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Fix duplicate variables in fees</t>
+  </si>
+  <si>
+    <t>Work on file manager</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,6 +759,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D17EC4-1D0A-4717-9C14-C5801EBD7E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD28204-009E-444B-8218-51ECA07A0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22812" yWindow="9108" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17892" yWindow="6348" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Work on file manager</t>
+  </si>
+  <si>
+    <t>Module management</t>
+  </si>
+  <si>
+    <t>Module and jurisdiction management</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,6 +787,39 @@
         <v>18</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD28204-009E-444B-8218-51ECA07A0ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D1BBD-C2B1-46B1-90B7-C0193B740BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17892" yWindow="6348" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20592" yWindow="7476" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Module and jurisdiction management</t>
+  </si>
+  <si>
+    <t>UI for the new IPF Core</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,6 +823,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D1BBD-C2B1-46B1-90B7-C0193B740BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06830FFC-A859-4D83-8C08-2776CB7F5A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20592" yWindow="7476" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,6 +834,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06830FFC-A859-4D83-8C08-2776CB7F5A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D61DD4-DA1B-41DF-AE7A-9D6B25C78C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20592" yWindow="7476" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,6 +845,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D61DD4-DA1B-41DF-AE7A-9D6B25C78C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F32E17-F82A-4397-A68E-A4AD62082F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20592" yWindow="7476" windowWidth="22212" windowHeight="15036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="2535" windowWidth="21810" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -425,20 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44946</v>
       </c>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44953</v>
       </c>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44956</v>
       </c>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44959</v>
       </c>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44960</v>
       </c>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44960</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44961</v>
       </c>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44962</v>
       </c>
@@ -548,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44963</v>
       </c>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44964</v>
       </c>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44965</v>
       </c>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44966</v>
       </c>
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44967</v>
       </c>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44968</v>
       </c>
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44969</v>
       </c>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44970</v>
       </c>
@@ -636,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44971</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44972</v>
       </c>
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44975</v>
       </c>
@@ -669,7 +669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44975</v>
       </c>
@@ -680,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44977</v>
       </c>
@@ -691,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44978</v>
       </c>
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44979</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44982</v>
       </c>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44983</v>
       </c>
@@ -735,7 +735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44984</v>
       </c>
@@ -746,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44985</v>
       </c>
@@ -757,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44986</v>
       </c>
@@ -768,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44988</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44988</v>
       </c>
@@ -790,7 +790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44991</v>
       </c>
@@ -801,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44992</v>
       </c>
@@ -812,7 +812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44993</v>
       </c>
@@ -823,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44994</v>
       </c>
@@ -834,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44995</v>
       </c>
@@ -845,7 +845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44996</v>
       </c>
@@ -853,6 +853,28 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>21</v>
       </c>
     </row>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F32E17-F82A-4397-A68E-A4AD62082F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4672C01-2174-40C7-87A0-77B6C9D5C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="2535" windowWidth="21810" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="5172" windowWidth="17820" windowHeight="14232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>UI for the new IPF Core</t>
+  </si>
+  <si>
+    <t>Implement the COUNT property and IN/NIN operators</t>
   </si>
 </sst>
 </file>
@@ -425,20 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -449,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44946</v>
       </c>
@@ -460,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44953</v>
       </c>
@@ -471,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44956</v>
       </c>
@@ -482,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -493,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44959</v>
       </c>
@@ -504,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44960</v>
       </c>
@@ -515,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44960</v>
       </c>
@@ -526,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44961</v>
       </c>
@@ -537,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44962</v>
       </c>
@@ -548,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44963</v>
       </c>
@@ -559,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44964</v>
       </c>
@@ -570,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44965</v>
       </c>
@@ -581,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44966</v>
       </c>
@@ -592,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44967</v>
       </c>
@@ -603,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44968</v>
       </c>
@@ -614,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44969</v>
       </c>
@@ -625,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44970</v>
       </c>
@@ -636,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44971</v>
       </c>
@@ -647,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44972</v>
       </c>
@@ -658,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44975</v>
       </c>
@@ -669,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44975</v>
       </c>
@@ -680,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44977</v>
       </c>
@@ -691,7 +694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44978</v>
       </c>
@@ -702,7 +705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44979</v>
       </c>
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44982</v>
       </c>
@@ -724,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44983</v>
       </c>
@@ -735,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44984</v>
       </c>
@@ -746,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44985</v>
       </c>
@@ -757,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44986</v>
       </c>
@@ -768,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44988</v>
       </c>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44988</v>
       </c>
@@ -790,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44991</v>
       </c>
@@ -801,7 +804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44992</v>
       </c>
@@ -812,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44993</v>
       </c>
@@ -823,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44994</v>
       </c>
@@ -834,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44995</v>
       </c>
@@ -845,7 +848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44996</v>
       </c>
@@ -856,7 +859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44998</v>
       </c>
@@ -867,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44999</v>
       </c>
@@ -875,6 +878,61 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
         <v>21</v>
       </c>
     </row>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4672C01-2174-40C7-87A0-77B6C9D5C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76916A9A-CD54-4F1E-9FE7-FC84DE3A5B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="5172" windowWidth="17820" windowHeight="14232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Implement the COUNT property and IN/NIN operators</t>
+  </si>
+  <si>
+    <t>Implement the DATE variable type</t>
+  </si>
+  <si>
+    <t>Stabilize the DATE type implementation</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,6 +942,28 @@
         <v>21</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76916A9A-CD54-4F1E-9FE7-FC84DE3A5B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8841E2-91ED-41A7-80E8-D53C563821FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Stabilize the DATE type implementation</t>
+  </si>
+  <si>
+    <t>Stabilize the DATE type implementation &amp; reference update</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,6 +967,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8841E2-91ED-41A7-80E8-D53C563821FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6ABE1-E3E7-412C-8AE3-ABF52BCD5133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +972,7 @@
         <v>45009</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6ABE1-E3E7-412C-8AE3-ABF52BCD5133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2CD294-C318-422B-84AE-5FD87EFF9A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Stabilize the DATE type implementation &amp; reference update</t>
+  </si>
+  <si>
+    <t>Stabilize the !MONTHSTONOW_FROMLASTDAY property</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,6 +981,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2CD294-C318-422B-84AE-5FD87EFF9A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F49A2-FD85-41B8-8D28-D968E0638635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="12" windowWidth="19200" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Stabilize the !MONTHSTONOW_FROMLASTDAY property</t>
+  </si>
+  <si>
+    <t>Support for RETURN statements</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,6 +995,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F49A2-FD85-41B8-8D28-D968E0638635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753A2DD9-6F84-4A8E-8CD3-64B16DEA716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="12" windowWidth="19200" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Support for RETURN statements</t>
+  </si>
+  <si>
+    <t>UI for running multiple jurisdictions</t>
   </si>
 </sst>
 </file>
@@ -443,20 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -467,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44946</v>
       </c>
@@ -478,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44953</v>
       </c>
@@ -489,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44956</v>
       </c>
@@ -500,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -511,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44959</v>
       </c>
@@ -522,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44960</v>
       </c>
@@ -533,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44960</v>
       </c>
@@ -544,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44961</v>
       </c>
@@ -555,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44962</v>
       </c>
@@ -566,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44963</v>
       </c>
@@ -577,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44964</v>
       </c>
@@ -588,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44965</v>
       </c>
@@ -599,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44966</v>
       </c>
@@ -610,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44967</v>
       </c>
@@ -621,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44968</v>
       </c>
@@ -632,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44969</v>
       </c>
@@ -643,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44970</v>
       </c>
@@ -654,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44971</v>
       </c>
@@ -665,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44972</v>
       </c>
@@ -676,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44975</v>
       </c>
@@ -687,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44975</v>
       </c>
@@ -698,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44977</v>
       </c>
@@ -709,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44978</v>
       </c>
@@ -720,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44979</v>
       </c>
@@ -731,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44982</v>
       </c>
@@ -742,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44983</v>
       </c>
@@ -753,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44984</v>
       </c>
@@ -764,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44985</v>
       </c>
@@ -775,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44986</v>
       </c>
@@ -786,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44988</v>
       </c>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44988</v>
       </c>
@@ -808,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44991</v>
       </c>
@@ -819,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44992</v>
       </c>
@@ -830,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44993</v>
       </c>
@@ -841,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44994</v>
       </c>
@@ -852,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44995</v>
       </c>
@@ -863,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44996</v>
       </c>
@@ -874,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44998</v>
       </c>
@@ -885,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44999</v>
       </c>
@@ -896,7 +899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45000</v>
       </c>
@@ -907,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45001</v>
       </c>
@@ -918,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45002</v>
       </c>
@@ -929,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45003</v>
       </c>
@@ -940,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45004</v>
       </c>
@@ -951,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45005</v>
       </c>
@@ -962,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45006</v>
       </c>
@@ -973,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45009</v>
       </c>
@@ -984,7 +987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45012</v>
       </c>
@@ -995,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45033</v>
       </c>
@@ -1004,6 +1007,28 @@
       </c>
       <c r="C50" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753A2DD9-6F84-4A8E-8CD3-64B16DEA716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE88CD8-FDFF-4636-B883-AEE5FB00F55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16848" yWindow="8136" windowWidth="19560" windowHeight="14088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,14 +452,14 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44946</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44953</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44956</v>
       </c>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44959</v>
       </c>
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44960</v>
       </c>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44960</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44961</v>
       </c>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44962</v>
       </c>
@@ -569,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44963</v>
       </c>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44964</v>
       </c>
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44965</v>
       </c>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44966</v>
       </c>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44967</v>
       </c>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44968</v>
       </c>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44969</v>
       </c>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44970</v>
       </c>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44971</v>
       </c>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44972</v>
       </c>
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44975</v>
       </c>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44975</v>
       </c>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44977</v>
       </c>
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44978</v>
       </c>
@@ -723,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44979</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44982</v>
       </c>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44983</v>
       </c>
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44984</v>
       </c>
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44985</v>
       </c>
@@ -778,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44986</v>
       </c>
@@ -789,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44988</v>
       </c>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44988</v>
       </c>
@@ -811,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44991</v>
       </c>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44992</v>
       </c>
@@ -833,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44993</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44994</v>
       </c>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44995</v>
       </c>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44996</v>
       </c>
@@ -877,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44998</v>
       </c>
@@ -888,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44999</v>
       </c>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45000</v>
       </c>
@@ -910,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45001</v>
       </c>
@@ -921,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45002</v>
       </c>
@@ -932,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45003</v>
       </c>
@@ -943,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45004</v>
       </c>
@@ -954,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45005</v>
       </c>
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45006</v>
       </c>
@@ -976,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45009</v>
       </c>
@@ -987,7 +987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45012</v>
       </c>
@@ -998,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45033</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45040</v>
       </c>
@@ -1020,12 +1020,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45041</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE88CD8-FDFF-4636-B883-AEE5FB00F55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F51D1-8EB4-4959-B538-3E10457C02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16848" yWindow="8136" windowWidth="19560" windowHeight="14088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -446,20 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44946</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44953</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44956</v>
       </c>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44959</v>
       </c>
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44960</v>
       </c>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44960</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44961</v>
       </c>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44962</v>
       </c>
@@ -569,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44963</v>
       </c>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44964</v>
       </c>
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44965</v>
       </c>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44966</v>
       </c>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44967</v>
       </c>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44968</v>
       </c>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44969</v>
       </c>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44970</v>
       </c>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44971</v>
       </c>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44972</v>
       </c>
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44975</v>
       </c>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44975</v>
       </c>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44977</v>
       </c>
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44978</v>
       </c>
@@ -723,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44979</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44982</v>
       </c>
@@ -745,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44983</v>
       </c>
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44984</v>
       </c>
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44985</v>
       </c>
@@ -778,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44986</v>
       </c>
@@ -789,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44988</v>
       </c>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44988</v>
       </c>
@@ -811,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44991</v>
       </c>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44992</v>
       </c>
@@ -833,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44993</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44994</v>
       </c>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44995</v>
       </c>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44996</v>
       </c>
@@ -877,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44998</v>
       </c>
@@ -888,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44999</v>
       </c>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45000</v>
       </c>
@@ -910,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45001</v>
       </c>
@@ -921,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45002</v>
       </c>
@@ -932,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45003</v>
       </c>
@@ -943,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45004</v>
       </c>
@@ -954,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45005</v>
       </c>
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45006</v>
       </c>
@@ -976,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45009</v>
       </c>
@@ -987,7 +987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45012</v>
       </c>
@@ -998,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45033</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45040</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45041</v>
       </c>
@@ -1028,6 +1028,17 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
         <v>28</v>
       </c>
     </row>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49F51D1-8EB4-4959-B538-3E10457C02E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F439B8-1D0C-429C-9E4F-EB0C3E2E8F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>UI for running multiple jurisdictions</t>
+  </si>
+  <si>
+    <t>Fix for incorrect display of RETURNs</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1045,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F439B8-1D0C-429C-9E4F-EB0C3E2E8F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6102B5-62B8-4B04-AAC7-26C81ECDEE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Fix for incorrect display of RETURNs</t>
+  </si>
+  <si>
+    <t>Settings</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,6 +1059,39 @@
         <v>29</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6102B5-62B8-4B04-AAC7-26C81ECDEE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44032B1F-DD0A-4F77-A932-BA2463DA4D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21336" yWindow="8532" windowWidth="17112" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Settings</t>
+  </si>
+  <si>
+    <t>Module display</t>
+  </si>
+  <si>
+    <t>Code refactoring</t>
   </si>
 </sst>
 </file>
@@ -452,20 +458,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44946</v>
       </c>
@@ -487,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44953</v>
       </c>
@@ -498,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44956</v>
       </c>
@@ -509,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -520,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44959</v>
       </c>
@@ -531,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44960</v>
       </c>
@@ -542,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44960</v>
       </c>
@@ -553,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44961</v>
       </c>
@@ -564,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44962</v>
       </c>
@@ -575,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44963</v>
       </c>
@@ -586,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44964</v>
       </c>
@@ -597,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44965</v>
       </c>
@@ -608,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44966</v>
       </c>
@@ -619,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44967</v>
       </c>
@@ -630,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44968</v>
       </c>
@@ -641,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44969</v>
       </c>
@@ -652,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44970</v>
       </c>
@@ -663,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44971</v>
       </c>
@@ -674,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44972</v>
       </c>
@@ -685,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44975</v>
       </c>
@@ -696,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44975</v>
       </c>
@@ -707,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44977</v>
       </c>
@@ -718,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44978</v>
       </c>
@@ -729,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44979</v>
       </c>
@@ -740,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44982</v>
       </c>
@@ -751,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44983</v>
       </c>
@@ -762,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44984</v>
       </c>
@@ -773,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44985</v>
       </c>
@@ -784,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44986</v>
       </c>
@@ -795,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44988</v>
       </c>
@@ -806,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44988</v>
       </c>
@@ -817,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44991</v>
       </c>
@@ -828,7 +834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44992</v>
       </c>
@@ -839,7 +845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44993</v>
       </c>
@@ -850,7 +856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44994</v>
       </c>
@@ -861,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44995</v>
       </c>
@@ -872,7 +878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44996</v>
       </c>
@@ -883,7 +889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44998</v>
       </c>
@@ -894,7 +900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44999</v>
       </c>
@@ -905,7 +911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45000</v>
       </c>
@@ -916,7 +922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45001</v>
       </c>
@@ -927,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45002</v>
       </c>
@@ -938,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45003</v>
       </c>
@@ -949,7 +955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45004</v>
       </c>
@@ -960,7 +966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45005</v>
       </c>
@@ -971,7 +977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45006</v>
       </c>
@@ -982,7 +988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45009</v>
       </c>
@@ -993,7 +999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45012</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45033</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45040</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45041</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45048</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45050</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45067</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45068</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45069</v>
       </c>
@@ -1090,6 +1096,28 @@
       </c>
       <c r="C57" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44032B1F-DD0A-4F77-A932-BA2463DA4D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17790D9-C635-4061-B11E-F78DDD1F183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21336" yWindow="8532" windowWidth="17112" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1114,7 @@
         <v>45071</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17790D9-C635-4061-B11E-F78DDD1F183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE90AF-69FB-4438-8240-5C233F1C2B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21336" yWindow="8532" windowWidth="17112" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Code refactoring</t>
+  </si>
+  <si>
+    <t>Support for groups</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B52" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,6 +1123,39 @@
         <v>32</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45073</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45074</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE90AF-69FB-4438-8240-5C233F1C2B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA29484-F683-4F4F-821D-916AC048F5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21336" yWindow="8532" windowWidth="17112" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Support for groups</t>
+  </si>
+  <si>
+    <t>Debug</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,6 +1159,28 @@
         <v>33</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA29484-F683-4F4F-821D-916AC048F5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DB7513-B306-4EAF-8B28-48732D9B04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="1530" windowWidth="23175" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Debug</t>
+  </si>
+  <si>
+    <t>Front UI and bugfixes</t>
   </si>
 </sst>
 </file>
@@ -464,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B2:B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44946</v>
       </c>
@@ -499,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44953</v>
       </c>
@@ -510,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44956</v>
       </c>
@@ -521,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44957</v>
       </c>
@@ -532,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44959</v>
       </c>
@@ -543,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44960</v>
       </c>
@@ -554,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44960</v>
       </c>
@@ -565,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44961</v>
       </c>
@@ -576,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44962</v>
       </c>
@@ -587,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44963</v>
       </c>
@@ -598,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44964</v>
       </c>
@@ -609,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44965</v>
       </c>
@@ -620,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44966</v>
       </c>
@@ -631,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44967</v>
       </c>
@@ -642,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44968</v>
       </c>
@@ -653,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44969</v>
       </c>
@@ -664,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44970</v>
       </c>
@@ -675,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44971</v>
       </c>
@@ -686,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44972</v>
       </c>
@@ -697,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44975</v>
       </c>
@@ -708,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44975</v>
       </c>
@@ -719,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44977</v>
       </c>
@@ -730,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44978</v>
       </c>
@@ -741,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44979</v>
       </c>
@@ -752,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44982</v>
       </c>
@@ -763,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44983</v>
       </c>
@@ -774,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44984</v>
       </c>
@@ -785,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44985</v>
       </c>
@@ -796,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44986</v>
       </c>
@@ -807,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44988</v>
       </c>
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44988</v>
       </c>
@@ -829,7 +832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44991</v>
       </c>
@@ -840,7 +843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44992</v>
       </c>
@@ -851,7 +854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44993</v>
       </c>
@@ -862,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44994</v>
       </c>
@@ -873,7 +876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44995</v>
       </c>
@@ -884,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44996</v>
       </c>
@@ -895,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44998</v>
       </c>
@@ -906,7 +909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44999</v>
       </c>
@@ -917,7 +920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45000</v>
       </c>
@@ -928,7 +931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45001</v>
       </c>
@@ -939,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45002</v>
       </c>
@@ -950,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45003</v>
       </c>
@@ -961,7 +964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45004</v>
       </c>
@@ -972,7 +975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45005</v>
       </c>
@@ -983,7 +986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45006</v>
       </c>
@@ -994,7 +997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45009</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45012</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45033</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45040</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45041</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45048</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45050</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45067</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45068</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45069</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45070</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45071</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45072</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45073</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45074</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45082</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45083</v>
       </c>
@@ -1179,6 +1182,17 @@
       </c>
       <c r="C64" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DB7513-B306-4EAF-8B28-48732D9B04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953C442-7884-47ED-A6CF-3285E8EBF8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="1530" windowWidth="23175" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Front UI and bugfixes</t>
+  </si>
+  <si>
+    <t>Currency exchange cache</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B65" sqref="B2:B65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,6 +1198,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/Time Tracking/project_effort.xlsx
+++ b/assets/Time Tracking/project_effort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\ip-fees\assets\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953C442-7884-47ED-A6CF-3285E8EBF8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4065D290-273A-4032-916F-8621CDDC830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="1530" windowWidth="23175" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Meeting (via Goole Meet)</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Currency exchange cache</t>
+  </si>
+  <si>
+    <t>Translation fees</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1212,28 @@
         <v>36</v>
       </c>
     </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
